--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H2">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2721246666666667</v>
+        <v>0.2226943333333333</v>
       </c>
       <c r="N2">
-        <v>0.816374</v>
+        <v>0.668083</v>
       </c>
       <c r="O2">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150191</v>
       </c>
       <c r="P2">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150192</v>
       </c>
       <c r="Q2">
-        <v>2.806180675586889</v>
+        <v>1.968944599253666</v>
       </c>
       <c r="R2">
-        <v>25.255626080282</v>
+        <v>17.720501393283</v>
       </c>
       <c r="S2">
-        <v>0.07313566942000567</v>
+        <v>0.05603999655506436</v>
       </c>
       <c r="T2">
-        <v>0.07313566942000568</v>
+        <v>0.05603999655506435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H3">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.49577</v>
       </c>
       <c r="O3">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="P3">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="Q3">
-        <v>8.578888529901111</v>
+        <v>7.355422698196666</v>
       </c>
       <c r="R3">
-        <v>77.20999676910999</v>
+        <v>66.19880428377</v>
       </c>
       <c r="S3">
-        <v>0.2235860153169595</v>
+        <v>0.2093496499719839</v>
       </c>
       <c r="T3">
-        <v>0.2235860153169596</v>
+        <v>0.2093496499719839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H4">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.252499666666667</v>
+        <v>1.296707666666667</v>
       </c>
       <c r="N4">
-        <v>3.757499</v>
+        <v>3.890123</v>
       </c>
       <c r="O4">
-        <v>0.5314977008032795</v>
+        <v>0.5514794776733007</v>
       </c>
       <c r="P4">
-        <v>0.5314977008032796</v>
+        <v>0.5514794776733009</v>
       </c>
       <c r="Q4">
-        <v>12.91591976512855</v>
+        <v>11.46479804348033</v>
       </c>
       <c r="R4">
-        <v>116.243277886157</v>
+        <v>103.183182391323</v>
       </c>
       <c r="S4">
-        <v>0.3366192513602856</v>
+        <v>0.3263104726789585</v>
       </c>
       <c r="T4">
-        <v>0.3366192513602858</v>
+        <v>0.3263104726789585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2721246666666667</v>
+        <v>0.2226943333333333</v>
       </c>
       <c r="N5">
-        <v>0.816374</v>
+        <v>0.668083</v>
       </c>
       <c r="O5">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150191</v>
       </c>
       <c r="P5">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150192</v>
       </c>
       <c r="Q5">
-        <v>1.116646697937333</v>
+        <v>0.9138123897846666</v>
       </c>
       <c r="R5">
-        <v>10.049820281436</v>
+        <v>8.224311508061998</v>
       </c>
       <c r="S5">
-        <v>0.02910243965036422</v>
+        <v>0.02600887967844252</v>
       </c>
       <c r="T5">
-        <v>0.02910243965036422</v>
+        <v>0.02600887967844252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.49577</v>
       </c>
       <c r="O6">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="P6">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="Q6">
         <v>3.413745819086666</v>
@@ -818,10 +818,10 @@
         <v>30.72371237177999</v>
       </c>
       <c r="S6">
-        <v>0.08897024624276312</v>
+        <v>0.0971618520978179</v>
       </c>
       <c r="T6">
-        <v>0.08897024624276312</v>
+        <v>0.0971618520978179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.252499666666667</v>
+        <v>1.296707666666667</v>
       </c>
       <c r="N7">
-        <v>3.757499</v>
+        <v>3.890123</v>
       </c>
       <c r="O7">
-        <v>0.5314977008032795</v>
+        <v>0.5514794776733007</v>
       </c>
       <c r="P7">
-        <v>0.5314977008032796</v>
+        <v>0.5514794776733009</v>
       </c>
       <c r="Q7">
-        <v>5.139554727187333</v>
+        <v>5.320959514291332</v>
       </c>
       <c r="R7">
-        <v>46.25599254468599</v>
+        <v>47.88863562862199</v>
       </c>
       <c r="S7">
-        <v>0.1339488860299371</v>
+        <v>0.1514448669421941</v>
       </c>
       <c r="T7">
-        <v>0.1339488860299371</v>
+        <v>0.1514448669421941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H8">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2721246666666667</v>
+        <v>0.2226943333333333</v>
       </c>
       <c r="N8">
-        <v>0.816374</v>
+        <v>0.668083</v>
       </c>
       <c r="O8">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150191</v>
       </c>
       <c r="P8">
-        <v>0.1154759865526449</v>
+        <v>0.09471013227150192</v>
       </c>
       <c r="Q8">
-        <v>0.5079310310706667</v>
+        <v>0.4448485586768889</v>
       </c>
       <c r="R8">
-        <v>4.571379279636</v>
+        <v>4.003637028092</v>
       </c>
       <c r="S8">
-        <v>0.01323787748227499</v>
+        <v>0.01266125603799503</v>
       </c>
       <c r="T8">
-        <v>0.01323787748227499</v>
+        <v>0.01266125603799503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H9">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.49577</v>
       </c>
       <c r="O9">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="P9">
-        <v>0.3530263126440755</v>
+        <v>0.3538103900551972</v>
       </c>
       <c r="Q9">
-        <v>1.552816514753333</v>
+        <v>1.661828975275556</v>
       </c>
       <c r="R9">
-        <v>13.97534863278</v>
+        <v>14.95646077748</v>
       </c>
       <c r="S9">
-        <v>0.04047005108435282</v>
+        <v>0.04729888798539532</v>
       </c>
       <c r="T9">
-        <v>0.04047005108435283</v>
+        <v>0.04729888798539532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H10">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.252499666666667</v>
+        <v>1.296707666666667</v>
       </c>
       <c r="N10">
-        <v>3.757499</v>
+        <v>3.890123</v>
       </c>
       <c r="O10">
-        <v>0.5314977008032795</v>
+        <v>0.5514794776733007</v>
       </c>
       <c r="P10">
-        <v>0.5314977008032796</v>
+        <v>0.5514794776733009</v>
       </c>
       <c r="Q10">
-        <v>2.337838222820666</v>
+        <v>2.590270385005778</v>
       </c>
       <c r="R10">
-        <v>21.040544005386</v>
+        <v>23.312433465052</v>
       </c>
       <c r="S10">
-        <v>0.06092956341305675</v>
+        <v>0.07372413805214824</v>
       </c>
       <c r="T10">
-        <v>0.06092956341305676</v>
+        <v>0.07372413805214824</v>
       </c>
     </row>
   </sheetData>
